--- a/database/Example.xlsx
+++ b/database/Example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\bill-app-offline\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webstack\bill-app\app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0FDF5-7D8E-4DEA-887E-DE6C3C550A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4245E2FF-D44F-457A-AE4A-247FE75B74AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,6 +573,106 @@
         <v>22</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>46534</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>54245</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>54364736</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>90</v>
+      </c>
+      <c r="O3" s="2">
+        <v>45595</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>46534</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>54245</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>54364736</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>90</v>
+      </c>
+      <c r="O4" s="2">
+        <v>45595</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/Example.xlsx
+++ b/database/Example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webstack\bill-app\app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4245E2FF-D44F-457A-AE4A-247FE75B74AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA29CFBA-7D42-4065-A3D6-8955193E02A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -89,13 +89,25 @@
   </si>
   <si>
     <t>2024-2025</t>
+  </si>
+  <si>
+    <t>in_time</t>
+  </si>
+  <si>
+    <t>out_time</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>ramakona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +123,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Code ExtraLight"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,16 +161,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +509,7 @@
     <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +558,17 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -572,8 +617,17 @@
       <c r="P2" t="s">
         <v>22</v>
       </c>
+      <c r="Q2" s="4">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -622,8 +676,17 @@
       <c r="P3" t="s">
         <v>22</v>
       </c>
+      <c r="Q3" s="4">
+        <v>0.50416666666666698</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.51944444444444404</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -671,6 +734,15 @@
       </c>
       <c r="P4" t="s">
         <v>22</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.54583333333333295</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.56111111111111101</v>
+      </c>
+      <c r="S4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/database/Example.xlsx
+++ b/database/Example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webstack\bill-app\app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA29CFBA-7D42-4065-A3D6-8955193E02A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF7FBE5-F8C1-4CAF-A66E-BCA562D7C4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -73,21 +73,9 @@
     <t>Tanmay</t>
   </si>
   <si>
-    <t>Any</t>
-  </si>
-  <si>
-    <t>Cotton</t>
-  </si>
-  <si>
     <t>Qtl</t>
   </si>
   <si>
-    <t>Viplav</t>
-  </si>
-  <si>
-    <t>MH30GG6565</t>
-  </si>
-  <si>
     <t>2024-2025</t>
   </si>
   <si>
@@ -100,14 +88,38 @@
     <t>address</t>
   </si>
   <si>
-    <t>ramakona</t>
+    <t>Shripat Paikudev Nakade</t>
+  </si>
+  <si>
+    <t>Regenagri (Raw Cotton)</t>
+  </si>
+  <si>
+    <t>MH40CD4587</t>
+  </si>
+  <si>
+    <t>MHNAGICS21833</t>
+  </si>
+  <si>
+    <t>Wadegaon Umari</t>
+  </si>
+  <si>
+    <t>Ravindra Shamrao Borade</t>
+  </si>
+  <si>
+    <t>MHNAGICS21794</t>
+  </si>
+  <si>
+    <t>Kishor Madhukar Bondare</t>
+  </si>
+  <si>
+    <t>MHNAGICS21721</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,13 +141,33 @@
       <name val="Cascadia Code ExtraLight"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -176,18 +208,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,14 +602,14 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>25</v>
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
@@ -578,52 +622,52 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>52010015</v>
+      </c>
+      <c r="G2" s="5">
+        <v>29.7</v>
+      </c>
+      <c r="H2" s="6">
+        <v>7250</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N2" s="8">
+        <v>47.8</v>
+      </c>
+      <c r="O2" s="9">
+        <v>45682</v>
+      </c>
+      <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="F2">
-        <v>54245</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2">
-        <v>54364736</v>
-      </c>
-      <c r="M2">
-        <v>50</v>
-      </c>
-      <c r="N2">
-        <v>90</v>
-      </c>
-      <c r="O2" s="2">
-        <v>45595</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>0.46250000000000002</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="3">
         <v>0.4777777777777778</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -637,52 +681,52 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>52010015</v>
+      </c>
+      <c r="G3" s="5">
+        <v>28.5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>7300</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N3" s="8">
+        <v>48.6</v>
+      </c>
+      <c r="O3" s="9">
+        <v>45682</v>
+      </c>
+      <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="F3">
-        <v>54245</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3">
-        <v>54364736</v>
-      </c>
-      <c r="M3">
-        <v>50</v>
-      </c>
-      <c r="N3">
-        <v>90</v>
-      </c>
-      <c r="O3" s="2">
-        <v>45595</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>0.50416666666666698</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>0.51944444444444404</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -696,52 +740,52 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>52010015</v>
+      </c>
+      <c r="G4" s="5">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7260</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N4" s="8">
+        <v>41.9</v>
+      </c>
+      <c r="O4" s="9">
+        <v>45682</v>
+      </c>
+      <c r="P4" t="s">
         <v>18</v>
       </c>
-      <c r="F4">
-        <v>54245</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4">
-        <v>54364736</v>
-      </c>
-      <c r="M4">
-        <v>50</v>
-      </c>
-      <c r="N4">
-        <v>90</v>
-      </c>
-      <c r="O4" s="2">
-        <v>45595</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0.54583333333333295</v>
-      </c>
-      <c r="R4" s="4">
+      <c r="Q4" s="3">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="R4" s="3">
         <v>0.56111111111111101</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
